--- a/resources/users.xlsx
+++ b/resources/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>login</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Tqn*&amp;umN&lt;*^7zj</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -428,7 +434,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -494,6 +500,17 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
     </row>
